--- a/sources/Macedonian_data.xlsx
+++ b/sources/Macedonian_data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Macedonian" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Macedonian!$A$1:$S$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Macedonian!$A$1:$U$131</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="717">
   <si>
     <t>language_no</t>
   </si>
@@ -2073,100 +2073,106 @@
     <t>се срами</t>
   </si>
   <si>
-    <t>REFL</t>
-  </si>
-  <si>
-    <t>Не засчитываю, неправильная структура составляющих</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вариант со Маja, больше подходит для симметричной ситуации (они похожи друг на друга). В этом втором варианте перевода было "си личи", где си -- этический датив (себя-PRO.REFL.DAT). </t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 114</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем 95</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 43</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 21</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 19</t>
-  </si>
-  <si>
-    <t>Порядок слов OVS</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 61</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 15</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 119, 121</t>
-  </si>
-  <si>
-    <t>REFL. Вот тут и именно тут второй актант не может быть представлен как прямое дополнение (клитика), это две немаркированных ИГ</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 42</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 106</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же конструкция, что 92 и 93</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же конструкция, что 91 и 93</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же конструкция, что 91 и 92</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем 9</t>
-  </si>
-  <si>
-    <t>REFL. Есть вариант сонува (без се), там TR</t>
-  </si>
-  <si>
-    <t>Нормальная переходная конструкция</t>
-  </si>
-  <si>
-    <t>Тот же глагол, но другая конструкция, чем в 79</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 7</t>
-  </si>
-  <si>
-    <t>REFL. То же, что 122 (и похоже на 123)</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 46, 121</t>
-  </si>
-  <si>
-    <t>Тот же глагол и та же модель, что 46, 119</t>
-  </si>
-  <si>
-    <t>REFL. То же, что 117 (и похоже на 123)</t>
-  </si>
-  <si>
-    <t>REFL. Похоже (отличается приставкой) на 117, 122</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>Здесь и далее отмечено, есть ли в примере аккузативная клитика. Тут: да, но относится к X</t>
+    <t>verb_original_orthography</t>
+  </si>
+  <si>
+    <t>sentence_original_orthography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accusative clitic: yes (X). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не засчитываю, неправильная структура составляющих</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вариант со Маja, больше подходит для симметричной ситуации (они похожи друг на друга). В этом втором варианте перевода было "си личи", где си -- этический датив (себя-PRO.REFL.DAT). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же модель, что 114</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол, но другая конструкция, чем 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accusative clitic: yes. </t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол и та же модель, что 43</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол, но другая конструкция, чем в 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол, но другая конструкция, чем в 19</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Порядок слов OVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол, но другая конструкция, чем в 61</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол и та же модель, что 15</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол и та же модель, что 119, 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL. Вот тут и именно тут второй актант не может быть представлен как прямое дополнение (клитика), это две немаркированных ИГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол, но другая конструкция, чем в 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол, но другая конструкция, чем в 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же конструкция, что 92 и 93</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол и та же конструкция, что 91 и 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же конструкция, что 91 и 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол, но другая конструкция, чем 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL. Есть вариант сонува (без се), там TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нормальная переходная конструкция</t>
+  </si>
+  <si>
+    <t>Accusative clitic: yes. Тот же глагол, но другая конструкция, чем в 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же модель, что 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL. То же, что 122 (и похоже на 123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же модель, что 46, 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот же глагол и та же модель, что 46, 119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL. То же, что 117 (и похоже на 123)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REFL. Похоже (отличается приставкой) на 117, 122</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASS</t>
   </si>
 </sst>
 </file>
@@ -2536,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S131"/>
+  <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5:S117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2563,9 +2569,11 @@
     <col min="17" max="17" width="18.81640625" customWidth="1"/>
     <col min="18" max="18" width="28.6328125" customWidth="1"/>
     <col min="19" max="19" width="113.81640625" customWidth="1"/>
+    <col min="20" max="20" width="28.6328125" customWidth="1"/>
+    <col min="21" max="21" width="113.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2623,8 +2631,14 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T1" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>67</v>
       </c>
@@ -2668,10 +2682,12 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>67</v>
       </c>
@@ -2715,8 +2731,10 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>67</v>
       </c>
@@ -2753,17 +2771,19 @@
       <c r="L4" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S4" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>67</v>
       </c>
@@ -2805,8 +2825,10 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>67</v>
       </c>
@@ -2839,17 +2861,19 @@
         <v>547</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>684</v>
-      </c>
+      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S6" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>67</v>
       </c>
@@ -2886,17 +2910,19 @@
       <c r="L7" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>685</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>67</v>
       </c>
@@ -2933,17 +2959,19 @@
       <c r="L8" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>686</v>
-      </c>
+      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S8" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>67</v>
       </c>
@@ -2985,8 +3013,10 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>67</v>
       </c>
@@ -3021,19 +3051,19 @@
       <c r="L10" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>687</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>67</v>
       </c>
@@ -3077,8 +3107,10 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>67</v>
       </c>
@@ -3115,17 +3147,19 @@
       <c r="L12" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S12" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>67</v>
       </c>
@@ -3169,8 +3203,10 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>67</v>
       </c>
@@ -3212,10 +3248,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>67</v>
       </c>
@@ -3259,8 +3297,10 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>67</v>
       </c>
@@ -3295,19 +3335,19 @@
       <c r="L16" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>688</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>67</v>
       </c>
@@ -3349,10 +3389,12 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>67</v>
       </c>
@@ -3396,8 +3438,10 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>67</v>
       </c>
@@ -3439,10 +3483,12 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>67</v>
       </c>
@@ -3477,19 +3523,19 @@
       <c r="L20" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>689</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>67</v>
       </c>
@@ -3531,10 +3577,12 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>67</v>
       </c>
@@ -3571,17 +3619,19 @@
       <c r="L22" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>690</v>
-      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S22" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>67</v>
       </c>
@@ -3618,17 +3668,19 @@
       <c r="L23" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S23" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>67</v>
       </c>
@@ -3665,17 +3717,19 @@
       <c r="L24" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S24" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>67</v>
       </c>
@@ -3712,17 +3766,19 @@
       <c r="L25" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S25" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>67</v>
       </c>
@@ -3766,8 +3822,10 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>67</v>
       </c>
@@ -3809,8 +3867,10 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>67</v>
       </c>
@@ -3852,8 +3912,10 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>67</v>
       </c>
@@ -3895,10 +3957,12 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>67</v>
       </c>
@@ -3942,8 +4006,10 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>67</v>
       </c>
@@ -3987,8 +4053,10 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>67</v>
       </c>
@@ -4030,10 +4098,12 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>67</v>
       </c>
@@ -4070,17 +4140,19 @@
       <c r="L33" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S33" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>67</v>
       </c>
@@ -4122,10 +4194,12 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>67</v>
       </c>
@@ -4169,8 +4243,10 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>67</v>
       </c>
@@ -4212,10 +4288,12 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>67</v>
       </c>
@@ -4257,8 +4335,10 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>67</v>
       </c>
@@ -4295,17 +4375,19 @@
       <c r="L38" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S38" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>67</v>
       </c>
@@ -4347,8 +4429,10 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>67</v>
       </c>
@@ -4390,10 +4474,12 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>67</v>
       </c>
@@ -4435,10 +4521,12 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>67</v>
       </c>
@@ -4473,19 +4561,19 @@
       <c r="L42" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>691</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>67</v>
       </c>
@@ -4522,17 +4610,19 @@
       <c r="L43" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>692</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S43" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>67</v>
       </c>
@@ -4567,19 +4657,19 @@
       <c r="L44" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>693</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>697</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>67</v>
       </c>
@@ -4621,10 +4711,12 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>67</v>
       </c>
@@ -4668,8 +4760,10 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>67</v>
       </c>
@@ -4704,19 +4798,19 @@
       <c r="L47" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>694</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>67</v>
       </c>
@@ -4760,8 +4854,10 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>67</v>
       </c>
@@ -4805,8 +4901,10 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-    </row>
-    <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -4848,10 +4946,12 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>67</v>
       </c>
@@ -4893,8 +4993,10 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -4931,17 +5033,19 @@
       <c r="L52" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>695</v>
-      </c>
+      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S52" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>67</v>
       </c>
@@ -4983,10 +5087,12 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>67</v>
       </c>
@@ -5028,10 +5134,12 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>67</v>
       </c>
@@ -5068,17 +5176,19 @@
       <c r="L55" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M55" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S55" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>67</v>
       </c>
@@ -5120,10 +5230,12 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>67</v>
       </c>
@@ -5167,8 +5279,10 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>67</v>
       </c>
@@ -5210,10 +5324,12 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>67</v>
       </c>
@@ -5250,17 +5366,19 @@
       <c r="L59" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S59" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>67</v>
       </c>
@@ -5304,8 +5422,10 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>67</v>
       </c>
@@ -5347,10 +5467,12 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>67</v>
       </c>
@@ -5387,17 +5509,19 @@
       <c r="L62" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>696</v>
-      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S62" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>67</v>
       </c>
@@ -5441,8 +5565,10 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>67</v>
       </c>
@@ -5484,10 +5610,12 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>67</v>
       </c>
@@ -5524,17 +5652,19 @@
       <c r="L65" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S65" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -5578,8 +5708,10 @@
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>67</v>
       </c>
@@ -5621,10 +5753,12 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -5668,8 +5802,10 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -5711,10 +5847,12 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -5756,8 +5894,10 @@
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+    </row>
+    <row r="71" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>67</v>
       </c>
@@ -5799,8 +5939,10 @@
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
-    </row>
-    <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -5842,10 +5984,12 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+    </row>
+    <row r="73" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>67</v>
       </c>
@@ -5887,10 +6031,12 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+    </row>
+    <row r="74" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>67</v>
       </c>
@@ -5934,8 +6080,10 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+    </row>
+    <row r="75" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>67</v>
       </c>
@@ -5977,10 +6125,12 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>67</v>
       </c>
@@ -6022,10 +6172,12 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>67</v>
       </c>
@@ -6062,17 +6214,19 @@
       <c r="L77" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M77" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S77" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>67</v>
       </c>
@@ -6116,8 +6270,10 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>67</v>
       </c>
@@ -6159,8 +6315,10 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+    </row>
+    <row r="80" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>67</v>
       </c>
@@ -6197,17 +6355,19 @@
       <c r="L80" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>697</v>
-      </c>
+      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S80" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+    </row>
+    <row r="81" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>67</v>
       </c>
@@ -6244,17 +6404,19 @@
       <c r="L81" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-    </row>
-    <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S81" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+    </row>
+    <row r="82" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>67</v>
       </c>
@@ -6291,17 +6453,19 @@
       <c r="L82" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S82" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+    </row>
+    <row r="83" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6345,8 +6509,10 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>67</v>
       </c>
@@ -6383,17 +6549,19 @@
       <c r="L84" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S84" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+    </row>
+    <row r="85" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>67</v>
       </c>
@@ -6437,8 +6605,10 @@
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
-    </row>
-    <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+    </row>
+    <row r="86" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>67</v>
       </c>
@@ -6480,10 +6650,12 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>67</v>
       </c>
@@ -6527,8 +6699,10 @@
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
-    </row>
-    <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>67</v>
       </c>
@@ -6572,8 +6746,10 @@
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
-    </row>
-    <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+    </row>
+    <row r="89" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>67</v>
       </c>
@@ -6617,8 +6793,10 @@
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>67</v>
       </c>
@@ -6660,10 +6838,12 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>67</v>
       </c>
@@ -6707,8 +6887,10 @@
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
-    </row>
-    <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>67</v>
       </c>
@@ -6743,17 +6925,19 @@
       <c r="L92" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M92" s="4" t="s">
-        <v>698</v>
-      </c>
+      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-    </row>
-    <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S92" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>67</v>
       </c>
@@ -6788,19 +6972,19 @@
       <c r="L93" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M93" s="4" t="s">
-        <v>699</v>
-      </c>
+      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>67</v>
       </c>
@@ -6835,17 +7019,19 @@
       <c r="L94" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M94" s="4" t="s">
-        <v>700</v>
-      </c>
+      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S94" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>67</v>
       </c>
@@ -6882,17 +7068,19 @@
       <c r="L95" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M95" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S95" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+    </row>
+    <row r="96" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>67</v>
       </c>
@@ -6929,17 +7117,19 @@
       <c r="L96" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M96" s="4" t="s">
-        <v>701</v>
-      </c>
+      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S96" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+    </row>
+    <row r="97" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>67</v>
       </c>
@@ -6981,10 +7171,12 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>67</v>
       </c>
@@ -7021,17 +7213,19 @@
       <c r="L98" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="M98" s="4" t="s">
-        <v>702</v>
-      </c>
+      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S98" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>67</v>
       </c>
@@ -7068,17 +7262,19 @@
       <c r="L99" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M99" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S99" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>67</v>
       </c>
@@ -7115,17 +7311,19 @@
       <c r="L100" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M100" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-    </row>
-    <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S100" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+    </row>
+    <row r="101" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>67</v>
       </c>
@@ -7160,17 +7358,19 @@
       <c r="L101" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>703</v>
-      </c>
+      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-    </row>
-    <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S101" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+    </row>
+    <row r="102" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>67</v>
       </c>
@@ -7214,8 +7414,10 @@
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+    </row>
+    <row r="103" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>67</v>
       </c>
@@ -7257,8 +7459,10 @@
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
-    </row>
-    <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+    </row>
+    <row r="104" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>67</v>
       </c>
@@ -7300,10 +7504,12 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+    </row>
+    <row r="105" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>67</v>
       </c>
@@ -7347,8 +7553,10 @@
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
-    </row>
-    <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+    </row>
+    <row r="106" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>67</v>
       </c>
@@ -7390,10 +7598,12 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+    </row>
+    <row r="107" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>67</v>
       </c>
@@ -7428,19 +7638,19 @@
       <c r="L107" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M107" s="4" t="s">
-        <v>704</v>
-      </c>
+      <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>708</v>
+      </c>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>67</v>
       </c>
@@ -7482,10 +7692,12 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>67</v>
       </c>
@@ -7527,8 +7739,10 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
-    </row>
-    <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>67</v>
       </c>
@@ -7572,8 +7786,10 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
-    </row>
-    <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>67</v>
       </c>
@@ -7615,10 +7831,12 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>67</v>
       </c>
@@ -7655,17 +7873,19 @@
       <c r="L112" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M112" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-    </row>
-    <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S112" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+    </row>
+    <row r="113" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>67</v>
       </c>
@@ -7702,17 +7922,19 @@
       <c r="L113" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M113" s="4" t="s">
-        <v>705</v>
-      </c>
+      <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-    </row>
-    <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S113" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
+    <row r="114" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>67</v>
       </c>
@@ -7749,17 +7971,19 @@
       <c r="L114" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-    </row>
-    <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S114" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+    </row>
+    <row r="115" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>67</v>
       </c>
@@ -7796,17 +8020,19 @@
       <c r="L115" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="M115" s="4" t="s">
-        <v>706</v>
-      </c>
+      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-    </row>
-    <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S115" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+    </row>
+    <row r="116" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>67</v>
       </c>
@@ -7848,10 +8074,12 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+    </row>
+    <row r="117" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>67</v>
       </c>
@@ -7895,8 +8123,10 @@
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
-    </row>
-    <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+    </row>
+    <row r="118" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>67</v>
       </c>
@@ -7933,17 +8163,19 @@
       <c r="L118" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M118" s="4" t="s">
-        <v>707</v>
-      </c>
+      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-    </row>
-    <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S118" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+    </row>
+    <row r="119" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>67</v>
       </c>
@@ -7980,17 +8212,19 @@
       <c r="L119" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M119" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
-    </row>
-    <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S119" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+    </row>
+    <row r="120" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>67</v>
       </c>
@@ -8025,17 +8259,19 @@
       <c r="L120" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M120" s="4" t="s">
-        <v>708</v>
-      </c>
+      <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
-    </row>
-    <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S120" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+    </row>
+    <row r="121" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>67</v>
       </c>
@@ -8072,17 +8308,19 @@
       <c r="L121" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-    </row>
-    <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S121" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+    </row>
+    <row r="122" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>67</v>
       </c>
@@ -8117,17 +8355,19 @@
       <c r="L122" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="M122" s="4" t="s">
-        <v>709</v>
-      </c>
+      <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-    </row>
-    <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S122" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+    </row>
+    <row r="123" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>67</v>
       </c>
@@ -8164,17 +8404,19 @@
       <c r="L123" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M123" s="4" t="s">
-        <v>710</v>
-      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-    </row>
-    <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S123" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+    </row>
+    <row r="124" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>67</v>
       </c>
@@ -8211,17 +8453,19 @@
       <c r="L124" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>711</v>
-      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
-      <c r="S124" s="4"/>
-    </row>
-    <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S124" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>67</v>
       </c>
@@ -8263,10 +8507,12 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>67</v>
       </c>
@@ -8303,17 +8549,19 @@
       <c r="L126" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M126" s="4" t="s">
-        <v>712</v>
-      </c>
+      <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-    </row>
-    <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S126" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>67</v>
       </c>
@@ -8355,10 +8603,12 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>67</v>
       </c>
@@ -8395,17 +8645,19 @@
       <c r="L128" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-    </row>
-    <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S128" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>67</v>
       </c>
@@ -8442,17 +8694,19 @@
       <c r="L129" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-    </row>
-    <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="S129" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>67</v>
       </c>
@@ -8494,10 +8748,12 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+    </row>
+    <row r="131" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>67</v>
       </c>
@@ -8534,18 +8790,20 @@
       <c r="L131" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="M131" s="4" t="s">
-        <v>683</v>
-      </c>
+      <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
+      <c r="S131" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:U131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/Macedonian_data.xlsx
+++ b/sources/Macedonian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="718">
   <si>
     <t>language_no</t>
   </si>
@@ -1641,18 +1641,12 @@
     <t>NP</t>
   </si>
   <si>
-    <t>ACC_NP</t>
-  </si>
-  <si>
     <t>боледува</t>
   </si>
   <si>
     <t>od</t>
   </si>
   <si>
-    <t>NP_od</t>
-  </si>
-  <si>
     <t>се плаши</t>
   </si>
   <si>
@@ -1674,18 +1668,12 @@
     <t>na</t>
   </si>
   <si>
-    <t>NP_na</t>
-  </si>
-  <si>
     <t>верува</t>
   </si>
   <si>
     <t>DAT(na)</t>
   </si>
   <si>
-    <t>NP_DAT(na)</t>
-  </si>
-  <si>
     <t>зеде</t>
   </si>
   <si>
@@ -1698,27 +1686,18 @@
     <t>vrz</t>
   </si>
   <si>
-    <t>NP_vrz</t>
-  </si>
-  <si>
     <t>се сретна</t>
   </si>
   <si>
     <t>so</t>
   </si>
   <si>
-    <t>NP_so</t>
-  </si>
-  <si>
     <t>влезе</t>
   </si>
   <si>
     <t>vo</t>
   </si>
   <si>
-    <t>NP_vo</t>
-  </si>
-  <si>
     <t>победи</t>
   </si>
   <si>
@@ -1746,9 +1725,6 @@
     <t>do</t>
   </si>
   <si>
-    <t>NP_do</t>
-  </si>
-  <si>
     <t>се допре</t>
   </si>
   <si>
@@ -1776,9 +1752,6 @@
     <t>za</t>
   </si>
   <si>
-    <t>NP_za</t>
-  </si>
-  <si>
     <t>зависи</t>
   </si>
   <si>
@@ -1806,9 +1779,6 @@
     <t>nad</t>
   </si>
   <si>
-    <t>NP_nad</t>
-  </si>
-  <si>
     <t>има</t>
   </si>
   <si>
@@ -1827,9 +1797,6 @@
     <t>bez</t>
   </si>
   <si>
-    <t>NP_bez</t>
-  </si>
-  <si>
     <t>скрши</t>
   </si>
   <si>
@@ -1854,9 +1821,6 @@
     <t>се вика</t>
   </si>
   <si>
-    <t>NP_NP</t>
-  </si>
-  <si>
     <t>казни</t>
   </si>
   <si>
@@ -1872,9 +1836,6 @@
     <t>фали</t>
   </si>
   <si>
-    <t>DAT(na)_NP</t>
-  </si>
-  <si>
     <t>мрази</t>
   </si>
   <si>
@@ -2173,6 +2134,48 @@
   </si>
   <si>
     <t xml:space="preserve"> PASS</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>ACC_SBJ</t>
+  </si>
+  <si>
+    <t>DAT(na)_SBJ</t>
+  </si>
+  <si>
+    <t>SBJ_od</t>
+  </si>
+  <si>
+    <t>SBJ_na</t>
+  </si>
+  <si>
+    <t>SBJ_DAT(na)</t>
+  </si>
+  <si>
+    <t>SBJ_vrz</t>
+  </si>
+  <si>
+    <t>SBJ_so</t>
+  </si>
+  <si>
+    <t>SBJ_vo</t>
+  </si>
+  <si>
+    <t>SBJ_do</t>
+  </si>
+  <si>
+    <t>SBJ_za</t>
+  </si>
+  <si>
+    <t>SBJ_nad</t>
+  </si>
+  <si>
+    <t>SBJ_bez</t>
+  </si>
+  <si>
+    <t>SBJ_NP</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S117"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2632,10 +2635,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
@@ -2667,13 +2670,13 @@
         <v>537</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>539</v>
+        <v>705</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2682,7 +2685,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -2710,19 +2713,19 @@
         <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2757,19 +2760,19 @@
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2778,7 +2781,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -2806,17 +2809,19 @@
         <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2851,14 +2856,16 @@
         <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>545</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>545</v>
+      </c>
       <c r="K6" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -2868,7 +2875,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
@@ -2896,19 +2903,19 @@
         <v>42</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2917,7 +2924,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -2945,19 +2952,19 @@
         <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2966,7 +2973,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -2994,17 +3001,19 @@
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -3039,17 +3048,19 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -3058,7 +3069,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
@@ -3086,19 +3097,19 @@
         <v>58</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>558</v>
+        <v>710</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -3133,19 +3144,19 @@
         <v>62</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -3154,7 +3165,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -3182,19 +3193,19 @@
         <v>66</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -3229,17 +3240,19 @@
         <v>70</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -3248,7 +3261,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -3276,19 +3289,19 @@
         <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -3323,17 +3336,19 @@
         <v>78</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -3342,7 +3357,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
@@ -3370,17 +3385,19 @@
         <v>82</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -3389,7 +3406,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
@@ -3417,19 +3434,19 @@
         <v>86</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -3464,17 +3481,19 @@
         <v>90</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K19" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -3483,7 +3502,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
@@ -3511,17 +3530,19 @@
         <v>94</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K20" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3530,7 +3551,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
@@ -3558,17 +3579,19 @@
         <v>98</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -3577,7 +3600,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -3605,19 +3628,19 @@
         <v>102</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3626,7 +3649,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -3654,19 +3677,19 @@
         <v>106</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>574</v>
+        <v>713</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -3675,7 +3698,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -3703,19 +3726,19 @@
         <v>110</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -3724,7 +3747,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -3752,19 +3775,19 @@
         <v>114</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -3773,7 +3796,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -3801,19 +3824,19 @@
         <v>118</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -3848,17 +3871,19 @@
         <v>122</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3893,17 +3918,19 @@
         <v>126</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K28" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -3938,17 +3965,19 @@
         <v>130</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3957,7 +3986,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -3985,19 +4014,19 @@
         <v>134</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>584</v>
+        <v>714</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -4032,19 +4061,19 @@
         <v>138</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -4079,17 +4108,19 @@
         <v>142</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K32" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -4098,7 +4129,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -4126,19 +4157,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -4147,7 +4178,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -4175,17 +4206,19 @@
         <v>150</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -4194,7 +4227,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -4222,19 +4255,19 @@
         <v>154</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -4269,17 +4302,19 @@
         <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -4288,7 +4323,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
@@ -4316,17 +4351,19 @@
         <v>162</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -4361,19 +4398,19 @@
         <v>166</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>594</v>
+        <v>715</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -4382,7 +4419,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -4410,17 +4447,19 @@
         <v>169</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J39" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -4455,17 +4494,19 @@
         <v>173</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -4474,7 +4515,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
@@ -4502,17 +4543,19 @@
         <v>177</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J41" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K41" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -4521,7 +4564,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -4549,17 +4592,19 @@
         <v>181</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K42" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -4568,7 +4613,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -4596,19 +4641,19 @@
         <v>185</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>601</v>
+        <v>716</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -4617,7 +4662,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -4645,17 +4690,19 @@
         <v>189</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K44" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -4664,7 +4711,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -4692,17 +4739,19 @@
         <v>193</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K45" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -4711,7 +4760,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
@@ -4739,19 +4788,19 @@
         <v>197</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4786,17 +4835,19 @@
         <v>201</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K47" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -4805,7 +4856,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -4833,19 +4884,19 @@
         <v>205</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -4880,19 +4931,19 @@
         <v>209</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>584</v>
+        <v>714</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -4927,17 +4978,19 @@
         <v>213</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K50" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -4946,7 +4999,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
@@ -4974,17 +5027,19 @@
         <v>217</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K51" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -5019,10 +5074,10 @@
         <v>221</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>538</v>
@@ -5031,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>610</v>
+        <v>717</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -5040,7 +5095,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -5068,17 +5123,19 @@
         <v>225</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K53" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -5087,7 +5144,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
@@ -5115,17 +5172,19 @@
         <v>229</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J54" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K54" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -5134,7 +5193,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -5162,19 +5221,19 @@
         <v>233</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -5183,7 +5242,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
@@ -5211,17 +5270,19 @@
         <v>237</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K56" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -5230,7 +5291,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
@@ -5258,19 +5319,19 @@
         <v>241</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -5305,17 +5366,19 @@
         <v>245</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K58" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -5324,7 +5387,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
@@ -5352,19 +5415,19 @@
         <v>249</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -5373,7 +5436,7 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
@@ -5401,19 +5464,19 @@
         <v>253</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -5448,17 +5511,19 @@
         <v>257</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J61" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K61" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -5467,7 +5532,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
@@ -5495,19 +5560,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -5516,7 +5581,7 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
@@ -5544,19 +5609,19 @@
         <v>265</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -5591,17 +5656,19 @@
         <v>269</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J64" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K64" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -5610,7 +5677,7 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
@@ -5638,19 +5705,19 @@
         <v>273</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -5659,7 +5726,7 @@
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
@@ -5687,19 +5754,19 @@
         <v>277</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -5734,17 +5801,19 @@
         <v>281</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J67" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -5753,7 +5822,7 @@
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
@@ -5781,19 +5850,19 @@
         <v>285</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -5828,17 +5897,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J69" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K69" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -5847,7 +5918,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
@@ -5875,17 +5946,19 @@
         <v>293</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J70" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K70" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -5920,17 +5993,19 @@
         <v>297</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K71" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -5965,17 +6040,19 @@
         <v>301</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J72" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K72" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -5984,7 +6061,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
@@ -6012,17 +6089,19 @@
         <v>305</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J73" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K73" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -6031,7 +6110,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
@@ -6059,19 +6138,19 @@
         <v>309</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -6106,17 +6185,19 @@
         <v>313</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K75" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -6125,7 +6206,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
@@ -6153,17 +6234,19 @@
         <v>317</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K76" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -6172,7 +6255,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
@@ -6200,19 +6283,19 @@
         <v>321</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -6221,7 +6304,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
@@ -6249,19 +6332,19 @@
         <v>325</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -6296,17 +6379,19 @@
         <v>329</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J79" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K79" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -6341,19 +6426,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -6362,7 +6447,7 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
@@ -6390,19 +6475,19 @@
         <v>337</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -6411,7 +6496,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
@@ -6439,19 +6524,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -6460,7 +6545,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
@@ -6488,19 +6573,19 @@
         <v>345</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -6535,19 +6620,19 @@
         <v>349</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>584</v>
+        <v>714</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -6556,7 +6641,7 @@
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
@@ -6584,19 +6669,19 @@
         <v>353</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -6631,17 +6716,19 @@
         <v>357</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J86" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K86" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -6650,7 +6737,7 @@
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
@@ -6678,19 +6765,19 @@
         <v>361</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -6725,19 +6812,19 @@
         <v>365</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -6772,19 +6859,19 @@
         <v>369</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>8</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -6819,17 +6906,19 @@
         <v>373</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J90" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K90" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -6838,7 +6927,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
@@ -6866,19 +6955,19 @@
         <v>377</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -6913,17 +7002,19 @@
         <v>381</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K92" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -6932,7 +7023,7 @@
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
@@ -6960,17 +7051,19 @@
         <v>385</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J93" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K93" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -6979,7 +7072,7 @@
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
       <c r="S93" s="4" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
@@ -7007,17 +7100,19 @@
         <v>389</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J94" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K94" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -7026,7 +7121,7 @@
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
       <c r="S94" s="4" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
@@ -7054,19 +7149,19 @@
         <v>393</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -7075,7 +7170,7 @@
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
       <c r="S95" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
@@ -7103,19 +7198,19 @@
         <v>397</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -7124,7 +7219,7 @@
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
@@ -7152,17 +7247,19 @@
         <v>401</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J97" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K97" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -7171,7 +7268,7 @@
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
       <c r="S97" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
@@ -7199,19 +7296,19 @@
         <v>405</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -7220,7 +7317,7 @@
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="4" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
@@ -7248,19 +7345,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -7269,7 +7366,7 @@
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
@@ -7297,19 +7394,19 @@
         <v>413</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -7318,7 +7415,7 @@
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
       <c r="S100" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
@@ -7346,17 +7443,19 @@
         <v>417</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -7365,7 +7464,7 @@
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
       <c r="S101" s="4" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
@@ -7393,19 +7492,19 @@
         <v>421</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -7440,17 +7539,19 @@
         <v>425</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J103" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K103" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -7485,17 +7586,19 @@
         <v>428</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J104" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K104" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -7504,7 +7607,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
@@ -7532,19 +7635,19 @@
         <v>432</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -7579,17 +7682,19 @@
         <v>436</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J106" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K106" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -7598,7 +7703,7 @@
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
       <c r="S106" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
@@ -7626,17 +7731,19 @@
         <v>439</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J107" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K107" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -7645,7 +7752,7 @@
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="4" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
@@ -7673,17 +7780,19 @@
         <v>443</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J108" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K108" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -7692,7 +7801,7 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
@@ -7720,17 +7829,19 @@
         <v>447</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J109" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K109" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -7765,19 +7876,19 @@
         <v>451</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -7812,17 +7923,19 @@
         <v>455</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J111" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K111" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -7831,7 +7944,7 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
@@ -7859,19 +7972,19 @@
         <v>459</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -7880,7 +7993,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
@@ -7908,19 +8021,19 @@
         <v>463</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -7929,7 +8042,7 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="4" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
@@ -7957,19 +8070,19 @@
         <v>467</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>564</v>
+        <v>712</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -7978,7 +8091,7 @@
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
@@ -8006,19 +8119,19 @@
         <v>471</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K115" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -8027,7 +8140,7 @@
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="4" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
@@ -8055,17 +8168,19 @@
         <v>475</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J116" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K116" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -8074,7 +8189,7 @@
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
@@ -8102,19 +8217,19 @@
         <v>479</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>553</v>
+        <v>709</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -8149,19 +8264,19 @@
         <v>483</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -8170,7 +8285,7 @@
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
       <c r="S118" s="4" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
@@ -8198,19 +8313,19 @@
         <v>487</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -8219,7 +8334,7 @@
       <c r="Q119" s="4"/>
       <c r="R119" s="4"/>
       <c r="S119" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
@@ -8247,17 +8362,19 @@
         <v>490</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J120" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K120" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -8266,7 +8383,7 @@
       <c r="Q120" s="4"/>
       <c r="R120" s="4"/>
       <c r="S120" s="4" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
@@ -8294,19 +8411,19 @@
         <v>494</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>561</v>
+        <v>711</v>
       </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
@@ -8315,7 +8432,7 @@
       <c r="Q121" s="4"/>
       <c r="R121" s="4"/>
       <c r="S121" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
@@ -8343,17 +8460,19 @@
         <v>498</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J122" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -8362,7 +8481,7 @@
       <c r="Q122" s="4"/>
       <c r="R122" s="4"/>
       <c r="S122" s="4" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="T122" s="4"/>
       <c r="U122" s="4"/>
@@ -8390,19 +8509,19 @@
         <v>502</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -8411,7 +8530,7 @@
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="4" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="T123" s="4"/>
       <c r="U123" s="4"/>
@@ -8439,19 +8558,19 @@
         <v>506</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -8460,7 +8579,7 @@
       <c r="Q124" s="4"/>
       <c r="R124" s="4"/>
       <c r="S124" s="4" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="T124" s="4"/>
       <c r="U124" s="4"/>
@@ -8488,17 +8607,19 @@
         <v>510</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J125" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K125" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -8507,7 +8628,7 @@
       <c r="Q125" s="4"/>
       <c r="R125" s="4"/>
       <c r="S125" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T125" s="4"/>
       <c r="U125" s="4"/>
@@ -8535,19 +8656,19 @@
         <v>514</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -8556,7 +8677,7 @@
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
@@ -8584,17 +8705,19 @@
         <v>518</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J127" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K127" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -8603,7 +8726,7 @@
       <c r="Q127" s="4"/>
       <c r="R127" s="4"/>
       <c r="S127" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T127" s="4"/>
       <c r="U127" s="4"/>
@@ -8631,19 +8754,19 @@
         <v>522</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -8652,7 +8775,7 @@
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T128" s="4"/>
       <c r="U128" s="4"/>
@@ -8680,19 +8803,19 @@
         <v>526</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -8701,7 +8824,7 @@
       <c r="Q129" s="4"/>
       <c r="R129" s="4"/>
       <c r="S129" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T129" s="4"/>
       <c r="U129" s="4"/>
@@ -8729,17 +8852,19 @@
         <v>530</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="J130" s="4"/>
+        <v>704</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K130" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
@@ -8748,7 +8873,7 @@
       <c r="Q130" s="4"/>
       <c r="R130" s="4"/>
       <c r="S130" s="4" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="T130" s="4"/>
       <c r="U130" s="4"/>
@@ -8776,19 +8901,19 @@
         <v>534</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>538</v>
+        <v>704</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>542</v>
+        <v>707</v>
       </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -8797,7 +8922,7 @@
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
